--- a/2.-Statistics/Distribution normale.xlsx
+++ b/2.-Statistics/Distribution normale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\OneDrive\Documents\Ironhack\pre-work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\Documents Administrateur\Ironhack\2. Prework\2.-Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81A9725-B41B-4218-984C-49B79AC41F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9304CD76-2EBA-4C0D-BEA0-7DBB2633279A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="20" windowWidth="14400" windowHeight="8710" xr2:uid="{3297C7F6-A263-4BB9-B0B6-7F530E63AADC}"/>
+    <workbookView xWindow="4170" yWindow="590" windowWidth="11870" windowHeight="9610" xr2:uid="{3297C7F6-A263-4BB9-B0B6-7F530E63AADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67BBFA8-BACE-437F-BDE6-0431F6804D45}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C2" s="7">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -635,11 +635,11 @@
       </c>
       <c r="B31" s="5">
         <f>VAR(C2:C27)</f>
-        <v>5.2124615384615356E-3</v>
+        <v>5.1261538461538428E-3</v>
       </c>
       <c r="C31" s="5">
         <f>((C2-$B$35)^2+(C3-$B$35)^2+(C4-$B$35)^2+(C5-$B$35)^2+(C6-$B$35)^2+(C7-$B$35)^2+(C8-$B$35)^2+(C9-$B$35)^2+(C10-$B$35)^2+(C11-$B$35)^2+(C12-$B$35)^2+(C13-$B$35)^2+(C14-$B$35)^2+(C15-$B$35)^2+(C16-$B$35)^2+(C17-$B$35)^2+(C18-$B$35)^2+(C19-$B$35)^2+(C20-$B$35)^2+(C21-$B$35)^2+(C22-$B$35)^2+(C23-$B$35)^2+(C24-$B$35)^2+(C25-$B$35)^2+(C26-$B$35)^2+(C27-$B$35)^2)/($J$35-1)</f>
-        <v>5.2124615384615356E-3</v>
+        <v>5.1261538461538428E-3</v>
       </c>
       <c r="D31" s="6"/>
     </row>
@@ -649,15 +649,15 @@
       </c>
       <c r="B32" s="8">
         <f>STDEV(C2:C27)</f>
-        <v>7.2197379027645697E-2</v>
+        <v>7.159716367394621E-2</v>
       </c>
       <c r="C32" s="5">
         <f>SQRT(((C2-$B$35)^2+(C3-$B$35)^2+(C4-$B$35)^2+(C5-$B$35)^2+(C6-$B$35)^2+(C7-$B$35)^2+(C8-$B$35)^2+(C9-$B$35)^2+(C10-$B$35)^2+(C11-$B$35)^2+(C12-$B$35)^2+(C13-$B$35)^2+(C14-$B$35)^2+(C15-$B$35)^2+(C16-$B$35)^2+(C17-$B$35)^2+(C18-$B$35)^2+(C19-$B$35)^2+(C20-$B$35)^2+(C21-$B$35)^2+(C22-$B$35)^2+(C23-$B$35)^2+(C24-$B$35)^2+(C25-$B$35)^2+(C26-$B$35)^2+(C27-$B$35)^2)/($J$35-1))</f>
-        <v>7.2197379027645697E-2</v>
+        <v>7.159716367394621E-2</v>
       </c>
       <c r="D32" s="6">
         <f>SQRT(C31)</f>
-        <v>7.2197379027645697E-2</v>
+        <v>7.159716367394621E-2</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -667,11 +667,11 @@
       </c>
       <c r="B33" s="5">
         <f>AVEDEV(C2:C27)</f>
-        <v>5.3520710059171535E-2</v>
+        <v>5.3254437869822431E-2</v>
       </c>
       <c r="C33" s="5">
         <f>(ABS(C2-$B$35)+ABS(C3-$B$35)+ABS(C4-$B$35)+ABS(C5-$B$35)+ABS(C6-$B$35)+ABS(C7-$B$35)+ABS(C8-$B$35)+ABS(C9-$B$35)+ABS(C10-$B$35)+ABS(C11-$B$35)+ABS(C12-$B$35)+ABS(C13-$B$35)+ABS(C14-$B$35)+ABS(C15-$B$35)+ABS(C16-$B$35)+ABS(C17-$B$35)+ABS(C18-$B$35)+ABS(C19-$B$35)+ABS(C20-$B$35)+ABS(C21-$B$35)+ABS(C22-$B$35)+ABS(C23-$B$35)+ABS(C24-$B$35)+ABS(C25-$B$35)+ABS(C26-$B$35)+ABS(C27-$B$35))/$J$35</f>
-        <v>5.3520710059171535E-2</v>
+        <v>5.3254437869822431E-2</v>
       </c>
       <c r="D33" s="6"/>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C34" s="8">
         <f>$B$35+$B$32</f>
-        <v>1.6848896867199534</v>
+        <v>1.6846740867508694</v>
       </c>
       <c r="F34" s="7">
         <v>9</v>
@@ -704,11 +704,11 @@
       </c>
       <c r="B35" s="2">
         <f>AVERAGE($C$2:$C$27)</f>
-        <v>1.6126923076923076</v>
+        <v>1.6130769230769231</v>
       </c>
       <c r="C35" s="5">
         <f>SUM($C$2:$C$27)/26</f>
-        <v>1.6126923076923076</v>
+        <v>1.6130769230769231</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="3"/>
@@ -725,7 +725,7 @@
       </c>
       <c r="C36" s="8">
         <f>$B$35-$B$32</f>
-        <v>1.5404949286646619</v>
+        <v>1.5414797594029768</v>
       </c>
       <c r="F36" s="7">
         <v>9</v>
@@ -748,43 +748,43 @@
       </c>
       <c r="B39" s="5">
         <f ca="1">NORMINV(RAND(),$B$35,$B$32)</f>
-        <v>1.6770859114405592</v>
+        <v>1.4996164635059042</v>
       </c>
       <c r="C39" s="5">
         <f ca="1">NORMINV(RAND(),$B$35,$B$32)</f>
-        <v>1.7155441168310852</v>
+        <v>1.5255065565520156</v>
       </c>
       <c r="D39" s="5">
         <f ca="1">NORMINV(RAND(),$B$35,$B$32)</f>
-        <v>1.6547943540016701</v>
+        <v>1.4954172015015839</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" ref="E39:K39" ca="1" si="0">NORMINV(RAND(),$B$35,$B$32)</f>
-        <v>1.6923514960214094</v>
+        <v>1.5374328648061006</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7654885854922071</v>
+        <v>1.6332234627573115</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6154870268930146</v>
+        <v>1.6857167857204614</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5827170151088295</v>
+        <v>1.5438865627811593</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6533377166356931</v>
+        <v>1.6210274777597371</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.684237283442632</v>
+        <v>1.5226548648857083</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5468638338127405</v>
+        <v>1.6152192260757434</v>
       </c>
     </row>
   </sheetData>
